--- a/medicine/Premiers secours et secourisme/Black_Flies/Black_Flies.xlsx
+++ b/medicine/Premiers secours et secourisme/Black_Flies/Black_Flies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Black Flies (Asphalt City) est un film américain réalisé par Jean-Stéphane Sauvaire et sorti en 2023. Il s'agit de l'adaptation du roman 911 de Shannon Burke, relatant l'enfer quotidien de deux ambulanciers new-yorkais.
 Il est sélectionné en compétition officielle au festival de Cannes 2023.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À New York, le jeune ambulancier Ollie Cross fait équipe avec le très expérimenté Gene Rutkovsky. Le jeune homme va découvrir les risques du métier et être confronté à l'enfer quotidien de la violence et de la détresse humaine. Cela va le pousser à revoir sa vision de la vie et la mort.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre français et ancien titre original : Black Flies
@@ -563,7 +579,7 @@
 Format : couleur
 Genre : drame, thriller
 Durée : 124 minutes
-Dates de sortie[1] :
+Dates de sortie :
 France : 18 mai 2023 (festival de Cannes - compétition officielle)
 États-Unis : 29 mars 2024
 France : 3 avril 2024
@@ -595,7 +611,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sean Penn : Gene Rutkovsky
 Tye Sheridan : Ollie Cross
@@ -634,14 +652,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Le film est une adaptation du roman 911 (Black Flies) de Shannon Burke, publié en 2008 aux États-Unis. À l'origine, Darren Aronofsky est lié au projet mais il ne concrétise pas[2]. Le français Jean-Stéphane Sauvaire est annoncé à la réalisation en février 2019[3].
-Attribution des rôles
-Sean Penn rejoint officiellement la distribution du film, déjà composée de Tye Sheridan, en février 2021[4]. Mel Gibson avait un temps été envisagé suite à un premier refus de Sean Penn[5].
-Ils sont ensuite rejoints par Katherine Waterston, Michael Pitt et Mike Tyson[6].
-La plupart des autres personnages sont incarnés par des habitants de Brooklyn non professionnels[5].
-Tournage
-Le tournage débute le 25 avril 2022 à New York[7]. Il se déroule principalement à Bushwick (en), quartier de résidence du réalisateur[5].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est une adaptation du roman 911 (Black Flies) de Shannon Burke, publié en 2008 aux États-Unis. À l'origine, Darren Aronofsky est lié au projet mais il ne concrétise pas. Le français Jean-Stéphane Sauvaire est annoncé à la réalisation en février 2019.
 </t>
         </is>
       </c>
@@ -667,17 +684,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sortie et accueil</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dates de sortie et titre
-Le film est présenté le 18 mai 2023, en avant-première au festival de Cannes 2023 sous le titre Black Flies en compétition officielle[8]. Il devait initialement être distribué aux États-Unis par Open Road Films (en)[9]. En janvier 2024, Vertical Entertainment (en) et Roadside Attractions (en) acquièrent finalement les droits de distribution américains. Il sortira aux États-Unis le 29 mars 2024, sous le titre Asphalt City[10].
-Critique
-Sur le site d'agrégation de critiques Rotten Tomatoes, le film obtient 50% d'avis favorables, pour 26 critiques et une note moyenne de 5,7⁄10[11]. Sur le site Metacritic, qui utilise une moyenne pondérée, le film obtient la note de 47⁄100 pour 15 critiques[12]. En France, le site Allociné recense une moyenne spectateurs de 3,3⁄5 et de 2,9⁄5 pour 31 critiques de presse.
-Il obtient la note de 6⁄10 sur le site francophone SensCritique, recensant plus de 650 avis du public plus d'un mois après sa sortie.
-Box-office</t>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sean Penn rejoint officiellement la distribution du film, déjà composée de Tye Sheridan, en février 2021. Mel Gibson avait un temps été envisagé suite à un premier refus de Sean Penn.
+Ils sont ensuite rejoints par Katherine Waterston, Michael Pitt et Mike Tyson.
+La plupart des autres personnages sont incarnés par des habitants de Brooklyn non professionnels.
+</t>
         </is>
       </c>
     </row>
@@ -702,13 +723,130 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute le 25 avril 2022 à New York. Il se déroule principalement à Bushwick (en), quartier de résidence du réalisateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Black_Flies</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Black_Flies</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sortie et accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dates de sortie et titre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est présenté le 18 mai 2023, en avant-première au festival de Cannes 2023 sous le titre Black Flies en compétition officielle. Il devait initialement être distribué aux États-Unis par Open Road Films (en). En janvier 2024, Vertical Entertainment (en) et Roadside Attractions (en) acquièrent finalement les droits de distribution américains. Il sortira aux États-Unis le 29 mars 2024, sous le titre Asphalt City.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Black_Flies</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Black_Flies</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sortie et accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le site d'agrégation de critiques Rotten Tomatoes, le film obtient 50% d'avis favorables, pour 26 critiques et une note moyenne de 5,7⁄10. Sur le site Metacritic, qui utilise une moyenne pondérée, le film obtient la note de 47⁄100 pour 15 critiques. En France, le site Allociné recense une moyenne spectateurs de 3,3⁄5 et de 2,9⁄5 pour 31 critiques de presse.
+Il obtient la note de 6⁄10 sur le site francophone SensCritique, recensant plus de 650 avis du public plus d'un mois après sa sortie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Black_Flies</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Black_Flies</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sélection
-Festival de Cannes 2023 : sélection officielle, en compétition</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2023 : sélection officielle, en compétition</t>
         </is>
       </c>
     </row>
